--- a/freshers_data.xlsx
+++ b/freshers_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilak\OneDrive\Desktop\NYRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1B110-5A05-4F90-A78A-DDF8462F1B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115D4D8-1BDA-4EF6-BA54-116F48541A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1343">
   <si>
     <t>Name</t>
   </si>
@@ -3865,13 +3865,190 @@
     <t>24C71A0427</t>
   </si>
   <si>
-    <t>9000171648</t>
-  </si>
-  <si>
     <t>pavan12980p@gmail.com</t>
   </si>
   <si>
     <t>0W31DZVU8DZ2</t>
+  </si>
+  <si>
+    <t>YEDAMA RAKESH</t>
+  </si>
+  <si>
+    <t>24C71A0557</t>
+  </si>
+  <si>
+    <t>rakeshvarma5802@gmail.com</t>
+  </si>
+  <si>
+    <t>DRKFEODENC09</t>
+  </si>
+  <si>
+    <t>SHAIK SAMEERA BEGUM</t>
+  </si>
+  <si>
+    <t>23C71A0408</t>
+  </si>
+  <si>
+    <t>sameerashaik23c7@gmail.com</t>
+  </si>
+  <si>
+    <t>OEL6ABUKIBYH</t>
+  </si>
+  <si>
+    <t>TELUKULA MOUNIKA</t>
+  </si>
+  <si>
+    <t>23C71A0426</t>
+  </si>
+  <si>
+    <t>mounikasahu878@gmail.com</t>
+  </si>
+  <si>
+    <t>4RPI38ROZ5EQ</t>
+  </si>
+  <si>
+    <t>VELLAPU GANESH</t>
+  </si>
+  <si>
+    <t>24C71A6726</t>
+  </si>
+  <si>
+    <t>kv.ganesh998@gmail.com</t>
+  </si>
+  <si>
+    <t>IFX55G39KIK2</t>
+  </si>
+  <si>
+    <t>BEKKARIPALLI PAVITHRA</t>
+  </si>
+  <si>
+    <t>24C71A6258</t>
+  </si>
+  <si>
+    <t>pavithrabekkaripally26@gmail.com</t>
+  </si>
+  <si>
+    <t>8AT98EJM5H42</t>
+  </si>
+  <si>
+    <t>BOKKA RITHVIK</t>
+  </si>
+  <si>
+    <t>24C71A66F1</t>
+  </si>
+  <si>
+    <t>rithvikrishi73@gmail.com</t>
+  </si>
+  <si>
+    <t>30AXX61JJIOJ</t>
+  </si>
+  <si>
+    <t>YERRA PAVAN KUMAR</t>
+  </si>
+  <si>
+    <t>24C71A6211</t>
+  </si>
+  <si>
+    <t>yerrapavanyadav@gmail.com</t>
+  </si>
+  <si>
+    <t>5INP0NKMLNGD</t>
+  </si>
+  <si>
+    <t>PARLAGOLLA SRIDHAR</t>
+  </si>
+  <si>
+    <t>24C71A05B4</t>
+  </si>
+  <si>
+    <t>r15omeo143@gmail.com</t>
+  </si>
+  <si>
+    <t>38XA2YAGBN18</t>
+  </si>
+  <si>
+    <t>KUMMARI PRASHANTH</t>
+  </si>
+  <si>
+    <t>24C71A0597</t>
+  </si>
+  <si>
+    <t>Pkummari74@gmail.com</t>
+  </si>
+  <si>
+    <t>XAH2NOXND65P</t>
+  </si>
+  <si>
+    <t>SEETHA BALU CHANDER YADAV</t>
+  </si>
+  <si>
+    <t>23C71A6671</t>
+  </si>
+  <si>
+    <t>seethabaluchanderyadav5122@gmail.com</t>
+  </si>
+  <si>
+    <t>3XJK2G8SWBTB</t>
+  </si>
+  <si>
+    <t>THORLIKONDA VIVEK</t>
+  </si>
+  <si>
+    <t>24C71A0303</t>
+  </si>
+  <si>
+    <t>tvivekgaming96@gmail.com</t>
+  </si>
+  <si>
+    <t>21JZR0X0TPUR</t>
+  </si>
+  <si>
+    <t>M Revanth sai</t>
+  </si>
+  <si>
+    <t>24C71A0403</t>
+  </si>
+  <si>
+    <t>revanthsai604@gmail.com</t>
+  </si>
+  <si>
+    <t>8S7XN091S1XA</t>
+  </si>
+  <si>
+    <t>GAJULA AKHIL RAJU</t>
+  </si>
+  <si>
+    <t>24C71A0424</t>
+  </si>
+  <si>
+    <t>akhilrajgajula@gmail.com</t>
+  </si>
+  <si>
+    <t>C866ZYZV6SS7</t>
+  </si>
+  <si>
+    <t>D anji</t>
+  </si>
+  <si>
+    <t>24C71A0408</t>
+  </si>
+  <si>
+    <t>anji.dadapuram77@gmail.com</t>
+  </si>
+  <si>
+    <t>IB7Y11V6TB0J</t>
+  </si>
+  <si>
+    <t>GUDA GOUTHAMI</t>
+  </si>
+  <si>
+    <t>24C71A05E4</t>
+  </si>
+  <si>
+    <t>gouthamiguda2007@gmail.com</t>
+  </si>
+  <si>
+    <t>C5ZX7S6STDQR</t>
   </si>
 </sst>
 </file>
@@ -4238,13 +4415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="G316" sqref="G316"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -12090,7 +12270,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1219</v>
       </c>
@@ -12116,7 +12296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1223</v>
       </c>
@@ -12142,7 +12322,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1227</v>
       </c>
@@ -12168,7 +12348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1231</v>
       </c>
@@ -12194,7 +12374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1235</v>
       </c>
@@ -12220,7 +12400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1239</v>
       </c>
@@ -12246,7 +12426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1243</v>
       </c>
@@ -12272,7 +12452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1247</v>
       </c>
@@ -12298,7 +12478,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1251</v>
       </c>
@@ -12324,7 +12504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1255</v>
       </c>
@@ -12350,7 +12530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1259</v>
       </c>
@@ -12376,7 +12556,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1263</v>
       </c>
@@ -12402,7 +12582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1267</v>
       </c>
@@ -12428,7 +12608,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1271</v>
       </c>
@@ -12450,11 +12630,11 @@
       <c r="G318" t="s">
         <v>1274</v>
       </c>
-      <c r="I318" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1275</v>
       </c>
@@ -12476,22 +12656,22 @@
       <c r="G319" t="s">
         <v>1278</v>
       </c>
-      <c r="I319" t="s">
+      <c r="H319" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1279</v>
       </c>
       <c r="B320" t="s">
         <v>1280</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320">
+        <v>9000171648</v>
+      </c>
+      <c r="D320" t="s">
         <v>1281</v>
-      </c>
-      <c r="D320" t="s">
-        <v>1282</v>
       </c>
       <c r="E320" t="s">
         <v>574</v>
@@ -12500,9 +12680,404 @@
         <v>13</v>
       </c>
       <c r="G320" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H320" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>1283</v>
       </c>
-      <c r="I320" t="s">
+      <c r="B322" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C322">
+        <v>8309143154</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E322" t="s">
+        <v>133</v>
+      </c>
+      <c r="F322" t="s">
+        <v>13</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H322" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C323">
+        <v>9014911140</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E323" t="s">
+        <v>574</v>
+      </c>
+      <c r="F323" t="s">
+        <v>549</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C324">
+        <v>8919285911</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E324" t="s">
+        <v>574</v>
+      </c>
+      <c r="F324" t="s">
+        <v>549</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C325">
+        <v>9985969919</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E325" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325" t="s">
+        <v>13</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H325" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C326">
+        <v>6281492501</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E326" t="s">
+        <v>323</v>
+      </c>
+      <c r="F326" t="s">
+        <v>13</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C327">
+        <v>7207419210</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E327" t="s">
+        <v>133</v>
+      </c>
+      <c r="F327" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C328">
+        <v>7780565324</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E328" t="s">
+        <v>323</v>
+      </c>
+      <c r="F328" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C329">
+        <v>9550598958</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E329" t="s">
+        <v>133</v>
+      </c>
+      <c r="F329" t="s">
+        <v>13</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H329" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C330">
+        <v>8074918042</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E330" t="s">
+        <v>133</v>
+      </c>
+      <c r="F330" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H330" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C331">
+        <v>9701178486</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E331" t="s">
+        <v>19</v>
+      </c>
+      <c r="F331" t="s">
+        <v>549</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H331" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C332">
+        <v>8885714218</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E332" t="s">
+        <v>583</v>
+      </c>
+      <c r="F332" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C333">
+        <v>6305383718</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E333" t="s">
+        <v>574</v>
+      </c>
+      <c r="F333" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C334">
+        <v>6305472071</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E334" t="s">
+        <v>574</v>
+      </c>
+      <c r="F334" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H334" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C335">
+        <v>8074277041</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E335" t="s">
+        <v>574</v>
+      </c>
+      <c r="F335" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C336">
+        <v>7989021353</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E336" t="s">
+        <v>133</v>
+      </c>
+      <c r="F336" t="s">
+        <v>13</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I336" t="s">
         <v>361</v>
       </c>
     </row>

--- a/freshers_data.xlsx
+++ b/freshers_data.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilak\OneDrive\Desktop\NYRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115D4D8-1BDA-4EF6-BA54-116F48541A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D06A9B-B2A6-4192-BAF0-CB3E82CAB6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$357</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="1423">
   <si>
     <t>Name</t>
   </si>
@@ -4049,6 +4052,246 @@
   </si>
   <si>
     <t>C5ZX7S6STDQR</t>
+  </si>
+  <si>
+    <t>BHOOMA AMARAVATHI</t>
+  </si>
+  <si>
+    <t>23C71A0409</t>
+  </si>
+  <si>
+    <t>bhoomasrinivas191@gmail.com</t>
+  </si>
+  <si>
+    <t>AN5FG5FZG03B</t>
+  </si>
+  <si>
+    <t>NALLA MAHITHA SATYA</t>
+  </si>
+  <si>
+    <t>23C71A0423</t>
+  </si>
+  <si>
+    <t>mahithanalla7@gmail.com</t>
+  </si>
+  <si>
+    <t>LPWMWHTDKOEK</t>
+  </si>
+  <si>
+    <t>MEDISHETTI MOUNIKA</t>
+  </si>
+  <si>
+    <t>23C71A0404</t>
+  </si>
+  <si>
+    <t>mounikajyothi66@gmail.com</t>
+  </si>
+  <si>
+    <t>X8FJKCULLOCE</t>
+  </si>
+  <si>
+    <t>BOJJA AJITH KUMAR</t>
+  </si>
+  <si>
+    <t>23C71A0592</t>
+  </si>
+  <si>
+    <t>ajithkumar74261@gmail.com</t>
+  </si>
+  <si>
+    <t>VHGYKXI55M12</t>
+  </si>
+  <si>
+    <t>KADARI AJAY YADAV</t>
+  </si>
+  <si>
+    <t>23C71A6676</t>
+  </si>
+  <si>
+    <t>yadavajay56599@gmail.com</t>
+  </si>
+  <si>
+    <t>4AOI158AK86U</t>
+  </si>
+  <si>
+    <t>BORANCHA AISHWARYA REDDY</t>
+  </si>
+  <si>
+    <t>23C71A0535</t>
+  </si>
+  <si>
+    <t>aishwaryareddy1112@gmail.com</t>
+  </si>
+  <si>
+    <t>5NPEQMTUX1O5</t>
+  </si>
+  <si>
+    <t>MANNE TARUNI SRI SAI SHANMUKHI</t>
+  </si>
+  <si>
+    <t>23C71A0594</t>
+  </si>
+  <si>
+    <t>tarunishanmukhi@gmail.com</t>
+  </si>
+  <si>
+    <t>EJXF8TJLT81E</t>
+  </si>
+  <si>
+    <t>NARRA AKSHAYA</t>
+  </si>
+  <si>
+    <t>23C71A0598</t>
+  </si>
+  <si>
+    <t>akshayanarra2006@gmail.com</t>
+  </si>
+  <si>
+    <t>0F6LGOQ3TDQ5</t>
+  </si>
+  <si>
+    <t>DEEKSHA THAPA</t>
+  </si>
+  <si>
+    <t>23C71A0588</t>
+  </si>
+  <si>
+    <t>tdeeksha291@gmail.com</t>
+  </si>
+  <si>
+    <t>VX5BO49599GE</t>
+  </si>
+  <si>
+    <t>SHAIK FAISAL</t>
+  </si>
+  <si>
+    <t>24C71A6682</t>
+  </si>
+  <si>
+    <t>skfaisal4653@gmail.com</t>
+  </si>
+  <si>
+    <t>374SPEY3I8RN</t>
+  </si>
+  <si>
+    <t>SYED ABDUL KHADAR</t>
+  </si>
+  <si>
+    <t>24C71A66C9</t>
+  </si>
+  <si>
+    <t>abdulkhadarsyed07@gmail.com</t>
+  </si>
+  <si>
+    <t>57GBGY8OM4WU</t>
+  </si>
+  <si>
+    <t>MADDULA RAHUL</t>
+  </si>
+  <si>
+    <t>23C71A0578</t>
+  </si>
+  <si>
+    <t>tarunisrisaishanmukhi@gmail.com</t>
+  </si>
+  <si>
+    <t>59XPIIJMO2J1</t>
+  </si>
+  <si>
+    <t>DABBI NISHKAL REDDY</t>
+  </si>
+  <si>
+    <t>24C71A05H7</t>
+  </si>
+  <si>
+    <t>nishkalreddy123@gmail.com</t>
+  </si>
+  <si>
+    <t>J7FMVRJNACQV</t>
+  </si>
+  <si>
+    <t>CHINTHALA BHAVANA</t>
+  </si>
+  <si>
+    <t>24C71A6646</t>
+  </si>
+  <si>
+    <t>bhavanachinthala8@gmail.com</t>
+  </si>
+  <si>
+    <t>AOUPUJUJBC5O</t>
+  </si>
+  <si>
+    <t>T CHERITHA</t>
+  </si>
+  <si>
+    <t>23C71A6229</t>
+  </si>
+  <si>
+    <t>charithatelugu23@gmail.com</t>
+  </si>
+  <si>
+    <t>S54WF8M2IVR0</t>
+  </si>
+  <si>
+    <t>BUKKITLA SAI ANKITHA</t>
+  </si>
+  <si>
+    <t>23C71A6637</t>
+  </si>
+  <si>
+    <t>saiankitha.1410@gmail.com</t>
+  </si>
+  <si>
+    <t>Y25L1WGIYTJE</t>
+  </si>
+  <si>
+    <t>GORIGE HEMANTH KUMAR</t>
+  </si>
+  <si>
+    <t>24C71A0106</t>
+  </si>
+  <si>
+    <t>gorigesumalath881@gmail.com</t>
+  </si>
+  <si>
+    <t>XJO4QY7YGJYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYED SHOAIB RIZWAN </t>
+  </si>
+  <si>
+    <t>23C71A6209</t>
+  </si>
+  <si>
+    <t>syedshoaibrizwan0786@gmail.com</t>
+  </si>
+  <si>
+    <t>LAOGJI5NHEJU</t>
+  </si>
+  <si>
+    <t>KESANAKURTI NAGA SAI</t>
+  </si>
+  <si>
+    <t>24C71A6680</t>
+  </si>
+  <si>
+    <t>kesanaguttinagasai15@gmail.com</t>
+  </si>
+  <si>
+    <t>AYO1FLAECE9K</t>
+  </si>
+  <si>
+    <t>JERIPATI KARTHIK</t>
+  </si>
+  <si>
+    <t>23C71A0560</t>
+  </si>
+  <si>
+    <t>6281326428</t>
+  </si>
+  <si>
+    <t>8MHL8W9XV85L</t>
   </si>
 </sst>
 </file>
@@ -4056,7 +4299,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4112,7 +4355,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4415,16 +4658,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I336"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="K332" sqref="K332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T170" sqref="T170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4455,7 +4696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4481,7 +4722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4507,7 +4748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4533,7 +4774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4559,7 +4800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4585,7 +4826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4611,7 +4852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4637,7 +4878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4663,7 +4904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4689,7 +4930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4715,7 +4956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -4741,7 +4982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -4767,7 +5008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -4793,7 +5034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -4819,7 +5060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4845,7 +5086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -4871,7 +5112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4897,7 +5138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -4923,7 +5164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -4949,7 +5190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -4975,7 +5216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -5001,7 +5242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -5027,7 +5268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -5053,7 +5294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -5079,7 +5320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -5105,7 +5346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -5131,7 +5372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -5157,7 +5398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -5183,7 +5424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -5209,7 +5450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -5235,7 +5476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -5261,7 +5502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -5287,7 +5528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -5313,7 +5554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -5339,7 +5580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -5365,7 +5606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -5391,7 +5632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -5417,7 +5658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -5443,7 +5684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -5469,7 +5710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -5495,7 +5736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -5521,7 +5762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -5547,7 +5788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -5573,7 +5814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -5599,7 +5840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -5625,7 +5866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>195</v>
       </c>
@@ -5651,7 +5892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -5677,7 +5918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -5703,7 +5944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -5729,7 +5970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -5755,7 +5996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>215</v>
       </c>
@@ -5781,7 +6022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -5807,7 +6048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -5833,7 +6074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -5859,7 +6100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -5885,7 +6126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>235</v>
       </c>
@@ -5911,7 +6152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -5937,7 +6178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>243</v>
       </c>
@@ -5963,7 +6204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>247</v>
       </c>
@@ -5989,7 +6230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -6015,7 +6256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -6041,7 +6282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>259</v>
       </c>
@@ -6067,7 +6308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>263</v>
       </c>
@@ -6093,7 +6334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>267</v>
       </c>
@@ -6119,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>271</v>
       </c>
@@ -6145,7 +6386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -6171,7 +6412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>279</v>
       </c>
@@ -6197,7 +6438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -6223,7 +6464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -6249,7 +6490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -6275,7 +6516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>295</v>
       </c>
@@ -6301,7 +6542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>299</v>
       </c>
@@ -6327,7 +6568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -6353,7 +6594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>307</v>
       </c>
@@ -6379,7 +6620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -6405,7 +6646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -6431,7 +6672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -6457,7 +6698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>325</v>
       </c>
@@ -6483,7 +6724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -6509,7 +6750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>333</v>
       </c>
@@ -6535,7 +6776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -6561,7 +6802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>341</v>
       </c>
@@ -6587,7 +6828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>345</v>
       </c>
@@ -6613,7 +6854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>349</v>
       </c>
@@ -6639,7 +6880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>353</v>
       </c>
@@ -6665,12 +6906,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45721</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>357</v>
       </c>
@@ -6696,7 +6937,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>362</v>
       </c>
@@ -6722,7 +6963,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>366</v>
       </c>
@@ -6748,7 +6989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>370</v>
       </c>
@@ -6774,7 +7015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>374</v>
       </c>
@@ -6800,7 +7041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>378</v>
       </c>
@@ -6826,7 +7067,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -6852,7 +7093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>386</v>
       </c>
@@ -6878,7 +7119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>390</v>
       </c>
@@ -6904,7 +7145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>394</v>
       </c>
@@ -6930,7 +7171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -6956,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -6982,7 +7223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -7008,7 +7249,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>410</v>
       </c>
@@ -7034,7 +7275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -7060,7 +7301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>418</v>
       </c>
@@ -7086,7 +7327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>422</v>
       </c>
@@ -7112,7 +7353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>426</v>
       </c>
@@ -7138,7 +7379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>430</v>
       </c>
@@ -7164,7 +7405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>434</v>
       </c>
@@ -7190,7 +7431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>438</v>
       </c>
@@ -7216,7 +7457,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>442</v>
       </c>
@@ -7242,7 +7483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>446</v>
       </c>
@@ -7268,7 +7509,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>450</v>
       </c>
@@ -7294,7 +7535,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>454</v>
       </c>
@@ -7320,7 +7561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>458</v>
       </c>
@@ -7346,7 +7587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -7372,7 +7613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>466</v>
       </c>
@@ -7398,7 +7639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>470</v>
       </c>
@@ -7424,7 +7665,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>474</v>
       </c>
@@ -7450,7 +7691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>478</v>
       </c>
@@ -7476,7 +7717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -7502,7 +7743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>486</v>
       </c>
@@ -7528,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>490</v>
       </c>
@@ -7554,7 +7795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>494</v>
       </c>
@@ -7580,7 +7821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>498</v>
       </c>
@@ -7606,7 +7847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>502</v>
       </c>
@@ -7632,7 +7873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>506</v>
       </c>
@@ -7658,7 +7899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>510</v>
       </c>
@@ -7684,7 +7925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>514</v>
       </c>
@@ -7710,7 +7951,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>518</v>
       </c>
@@ -7736,7 +7977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>522</v>
       </c>
@@ -7762,7 +8003,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>526</v>
       </c>
@@ -7788,7 +8029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>530</v>
       </c>
@@ -7814,7 +8055,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>534</v>
       </c>
@@ -7840,7 +8081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>538</v>
       </c>
@@ -7866,7 +8107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>542</v>
       </c>
@@ -7918,7 +8159,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>551</v>
       </c>
@@ -7970,7 +8211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>559</v>
       </c>
@@ -8022,7 +8263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>567</v>
       </c>
@@ -8048,7 +8289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>571</v>
       </c>
@@ -8074,7 +8315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>576</v>
       </c>
@@ -8100,7 +8341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>580</v>
       </c>
@@ -8126,7 +8367,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>585</v>
       </c>
@@ -8152,7 +8393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>589</v>
       </c>
@@ -8178,7 +8419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>593</v>
       </c>
@@ -8204,7 +8445,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -8230,7 +8471,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>601</v>
       </c>
@@ -8412,7 +8653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>629</v>
       </c>
@@ -8438,7 +8679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>633</v>
       </c>
@@ -8464,7 +8705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>637</v>
       </c>
@@ -8490,7 +8731,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>641</v>
       </c>
@@ -8516,7 +8757,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>645</v>
       </c>
@@ -8542,7 +8783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>649</v>
       </c>
@@ -8568,7 +8809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>653</v>
       </c>
@@ -8594,7 +8835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>657</v>
       </c>
@@ -8620,7 +8861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>661</v>
       </c>
@@ -8646,7 +8887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>665</v>
       </c>
@@ -8672,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>669</v>
       </c>
@@ -8698,7 +8939,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>673</v>
       </c>
@@ -8724,7 +8965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>678</v>
       </c>
@@ -8750,7 +8991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>682</v>
       </c>
@@ -8828,7 +9069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>694</v>
       </c>
@@ -8854,7 +9095,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>698</v>
       </c>
@@ -8906,7 +9147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>706</v>
       </c>
@@ -8932,7 +9173,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>710</v>
       </c>
@@ -8958,7 +9199,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>714</v>
       </c>
@@ -8984,7 +9225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>718</v>
       </c>
@@ -9010,7 +9251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>722</v>
       </c>
@@ -9036,7 +9277,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>726</v>
       </c>
@@ -9062,7 +9303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>730</v>
       </c>
@@ -9088,7 +9329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>734</v>
       </c>
@@ -9270,7 +9511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>761</v>
       </c>
@@ -9296,7 +9537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>765</v>
       </c>
@@ -9322,7 +9563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>769</v>
       </c>
@@ -9348,7 +9589,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>774</v>
       </c>
@@ -9374,7 +9615,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>777</v>
       </c>
@@ -9400,7 +9641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>781</v>
       </c>
@@ -9426,7 +9667,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>785</v>
       </c>
@@ -9452,7 +9693,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>789</v>
       </c>
@@ -9478,7 +9719,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>793</v>
       </c>
@@ -9530,7 +9771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>45782</v>
       </c>
@@ -9691,7 +9932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>825</v>
       </c>
@@ -9717,7 +9958,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>829</v>
       </c>
@@ -9743,7 +9984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>833</v>
       </c>
@@ -9769,7 +10010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>837</v>
       </c>
@@ -9795,7 +10036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>841</v>
       </c>
@@ -9821,7 +10062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>845</v>
       </c>
@@ -9847,7 +10088,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>849</v>
       </c>
@@ -9873,7 +10114,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>853</v>
       </c>
@@ -9899,7 +10140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>857</v>
       </c>
@@ -9925,7 +10166,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>861</v>
       </c>
@@ -9951,7 +10192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>865</v>
       </c>
@@ -9977,7 +10218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>869</v>
       </c>
@@ -10107,7 +10348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>889</v>
       </c>
@@ -10133,7 +10374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>893</v>
       </c>
@@ -10159,7 +10400,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>897</v>
       </c>
@@ -10185,7 +10426,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>901</v>
       </c>
@@ -10237,7 +10478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>909</v>
       </c>
@@ -10263,7 +10504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>913</v>
       </c>
@@ -10289,7 +10530,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>917</v>
       </c>
@@ -10315,7 +10556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>921</v>
       </c>
@@ -10341,7 +10582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>925</v>
       </c>
@@ -10367,7 +10608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>929</v>
       </c>
@@ -10393,7 +10634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>933</v>
       </c>
@@ -10471,7 +10712,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>944</v>
       </c>
@@ -10497,7 +10738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>948</v>
       </c>
@@ -10523,7 +10764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>952</v>
       </c>
@@ -10549,7 +10790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>956</v>
       </c>
@@ -10575,7 +10816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>960</v>
       </c>
@@ -10601,7 +10842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>964</v>
       </c>
@@ -10627,7 +10868,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>968</v>
       </c>
@@ -10653,7 +10894,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>972</v>
       </c>
@@ -10679,7 +10920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>976</v>
       </c>
@@ -10705,7 +10946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>980</v>
       </c>
@@ -10731,7 +10972,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>984</v>
       </c>
@@ -10757,7 +10998,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>988</v>
       </c>
@@ -10783,7 +11024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>992</v>
       </c>
@@ -10809,7 +11050,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>996</v>
       </c>
@@ -10835,7 +11076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1000</v>
       </c>
@@ -10861,7 +11102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1004</v>
       </c>
@@ -10887,7 +11128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1008</v>
       </c>
@@ -10913,7 +11154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1012</v>
       </c>
@@ -10939,7 +11180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1016</v>
       </c>
@@ -10965,7 +11206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1020</v>
       </c>
@@ -10991,7 +11232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1024</v>
       </c>
@@ -11017,7 +11258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1028</v>
       </c>
@@ -11043,7 +11284,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1032</v>
       </c>
@@ -11069,7 +11310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1036</v>
       </c>
@@ -11147,7 +11388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1048</v>
       </c>
@@ -11173,7 +11414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1052</v>
       </c>
@@ -11199,7 +11440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1056</v>
       </c>
@@ -11225,7 +11466,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1060</v>
       </c>
@@ -11251,7 +11492,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1063</v>
       </c>
@@ -11277,7 +11518,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1067</v>
       </c>
@@ -11303,7 +11544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1071</v>
       </c>
@@ -11355,7 +11596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1079</v>
       </c>
@@ -11381,7 +11622,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1083</v>
       </c>
@@ -11407,7 +11648,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1087</v>
       </c>
@@ -11433,7 +11674,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1091</v>
       </c>
@@ -11459,7 +11700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1095</v>
       </c>
@@ -11485,7 +11726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1099</v>
       </c>
@@ -11511,7 +11752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1103</v>
       </c>
@@ -11537,7 +11778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1107</v>
       </c>
@@ -11563,7 +11804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1111</v>
       </c>
@@ -11589,7 +11830,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1115</v>
       </c>
@@ -11615,7 +11856,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1119</v>
       </c>
@@ -11641,7 +11882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1123</v>
       </c>
@@ -11667,7 +11908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1127</v>
       </c>
@@ -11693,7 +11934,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1131</v>
       </c>
@@ -11719,7 +11960,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1135</v>
       </c>
@@ -11745,7 +11986,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1139</v>
       </c>
@@ -11797,7 +12038,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1147</v>
       </c>
@@ -11849,7 +12090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1155</v>
       </c>
@@ -11875,7 +12116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1159</v>
       </c>
@@ -11901,7 +12142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1163</v>
       </c>
@@ -11979,7 +12220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1175</v>
       </c>
@@ -12005,7 +12246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1179</v>
       </c>
@@ -12057,7 +12298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1187</v>
       </c>
@@ -12083,7 +12324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1191</v>
       </c>
@@ -12109,7 +12350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1195</v>
       </c>
@@ -12135,7 +12376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1199</v>
       </c>
@@ -12161,12 +12402,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>45813</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1203</v>
       </c>
@@ -12192,7 +12433,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1207</v>
       </c>
@@ -12218,7 +12459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1211</v>
       </c>
@@ -12244,7 +12485,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1215</v>
       </c>
@@ -12270,7 +12511,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1219</v>
       </c>
@@ -12296,7 +12537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1223</v>
       </c>
@@ -12322,7 +12563,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1227</v>
       </c>
@@ -12426,7 +12667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1243</v>
       </c>
@@ -12452,7 +12693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1247</v>
       </c>
@@ -12478,7 +12719,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1251</v>
       </c>
@@ -12504,7 +12745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1255</v>
       </c>
@@ -12530,7 +12771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1259</v>
       </c>
@@ -12608,7 +12849,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1271</v>
       </c>
@@ -12634,7 +12875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1275</v>
       </c>
@@ -12660,7 +12901,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1279</v>
       </c>
@@ -12686,12 +12927,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45843</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1283</v>
       </c>
@@ -12769,7 +13010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1295</v>
       </c>
@@ -12795,7 +13036,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1299</v>
       </c>
@@ -12821,7 +13062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1303</v>
       </c>
@@ -12847,7 +13088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1307</v>
       </c>
@@ -12873,7 +13114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1311</v>
       </c>
@@ -12899,7 +13140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1315</v>
       </c>
@@ -12951,7 +13192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1323</v>
       </c>
@@ -12977,7 +13218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1327</v>
       </c>
@@ -13003,7 +13244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1331</v>
       </c>
@@ -13029,7 +13270,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1335</v>
       </c>
@@ -13055,7 +13296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1339</v>
       </c>
@@ -13081,7 +13322,539 @@
         <v>361</v>
       </c>
     </row>
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C338">
+        <v>7731894617</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E338" t="s">
+        <v>574</v>
+      </c>
+      <c r="F338" t="s">
+        <v>549</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C339">
+        <v>9502437223</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E339" t="s">
+        <v>574</v>
+      </c>
+      <c r="F339" t="s">
+        <v>549</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C340">
+        <v>9014941107</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E340" t="s">
+        <v>574</v>
+      </c>
+      <c r="F340" t="s">
+        <v>549</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I340" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C341">
+        <v>7013826427</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E341" t="s">
+        <v>133</v>
+      </c>
+      <c r="F341" t="s">
+        <v>549</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C342">
+        <v>9000887171</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E342" t="s">
+        <v>19</v>
+      </c>
+      <c r="F342" t="s">
+        <v>549</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C343">
+        <v>7780500014</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E343" t="s">
+        <v>133</v>
+      </c>
+      <c r="F343" t="s">
+        <v>549</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I343" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C344">
+        <v>8885589778</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E344" t="s">
+        <v>133</v>
+      </c>
+      <c r="F344" t="s">
+        <v>549</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C345">
+        <v>9553039094</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E345" t="s">
+        <v>133</v>
+      </c>
+      <c r="F345" t="s">
+        <v>549</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I345" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C346">
+        <v>9059608388</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E346" t="s">
+        <v>133</v>
+      </c>
+      <c r="F346" t="s">
+        <v>549</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C347">
+        <v>8247341590</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E347" t="s">
+        <v>133</v>
+      </c>
+      <c r="F347" t="s">
+        <v>13</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I347" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C348">
+        <v>9154944494</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E348" t="s">
+        <v>133</v>
+      </c>
+      <c r="F348" t="s">
+        <v>13</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C349">
+        <v>9392713773</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E349" t="s">
+        <v>133</v>
+      </c>
+      <c r="F349" t="s">
+        <v>549</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C350">
+        <v>9515235520</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E350" t="s">
+        <v>133</v>
+      </c>
+      <c r="F350" t="s">
+        <v>13</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C351">
+        <v>9014780231</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E351" t="s">
+        <v>19</v>
+      </c>
+      <c r="F351" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I351" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C352">
+        <v>6304821379</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E352" t="s">
+        <v>323</v>
+      </c>
+      <c r="F352" t="s">
+        <v>549</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C353">
+        <v>6303925124</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E353" t="s">
+        <v>19</v>
+      </c>
+      <c r="F353" t="s">
+        <v>549</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I353" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C354">
+        <v>7569560130</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E354" t="s">
+        <v>676</v>
+      </c>
+      <c r="F354" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I354" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C355">
+        <v>9550657049</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E355" t="s">
+        <v>323</v>
+      </c>
+      <c r="F355" t="s">
+        <v>549</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I355" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C356">
+        <v>6281326428</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E356" t="s">
+        <v>19</v>
+      </c>
+      <c r="F356" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E357" t="s">
+        <v>133</v>
+      </c>
+      <c r="F357" t="s">
+        <v>549</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I357" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I357" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2nd Year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/freshers_data.xlsx
+++ b/freshers_data.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilak\OneDrive\Desktop\NYRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D06A9B-B2A6-4192-BAF0-CB3E82CAB6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06D930-0255-480E-9018-CB23805BE4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$357</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1626">
   <si>
     <t>Name</t>
   </si>
@@ -4288,10 +4285,619 @@
     <t>23C71A0560</t>
   </si>
   <si>
-    <t>6281326428</t>
-  </si>
-  <si>
     <t>8MHL8W9XV85L</t>
+  </si>
+  <si>
+    <t>RUMMA KARTHIK</t>
+  </si>
+  <si>
+    <t>24C71A66D2</t>
+  </si>
+  <si>
+    <t>karthikrumma0@gmail.com</t>
+  </si>
+  <si>
+    <t>7CKLF8X9MCBP</t>
+  </si>
+  <si>
+    <t>GORLI ASHOK</t>
+  </si>
+  <si>
+    <t>23C71A0403</t>
+  </si>
+  <si>
+    <t>ashokkumar9.11.2005@gmail.com</t>
+  </si>
+  <si>
+    <t>5A2HCUABAE4V</t>
+  </si>
+  <si>
+    <t>SABYA SACHI PRADHAN</t>
+  </si>
+  <si>
+    <t>23C71A6207</t>
+  </si>
+  <si>
+    <t>sabyasachipradhan9010@gmail.com</t>
+  </si>
+  <si>
+    <t>S0HDMLCP2FBH</t>
+  </si>
+  <si>
+    <t>VEYYA PAVANKUMAR</t>
+  </si>
+  <si>
+    <t>24C71A0107</t>
+  </si>
+  <si>
+    <t>pavanveyya2016@gmail.com</t>
+  </si>
+  <si>
+    <t>0KAXZ7BPN2RV</t>
+  </si>
+  <si>
+    <t>KAGITALA HAVEELA</t>
+  </si>
+  <si>
+    <t>24C71A05H5</t>
+  </si>
+  <si>
+    <t>havilakagitala@gmail.com</t>
+  </si>
+  <si>
+    <t>FZTJUIT9L6C1</t>
+  </si>
+  <si>
+    <t>SHAIK RESHMIN BEGUM</t>
+  </si>
+  <si>
+    <t>24C71A6665</t>
+  </si>
+  <si>
+    <t>reshmin999@gmail.com</t>
+  </si>
+  <si>
+    <t>NJ3IUUW24QNV</t>
+  </si>
+  <si>
+    <t>TUNGE CHANDANA</t>
+  </si>
+  <si>
+    <t>24C71A05C5</t>
+  </si>
+  <si>
+    <t>tungechandana2@gmail.com</t>
+  </si>
+  <si>
+    <t>V4U6AVE6X4FF</t>
+  </si>
+  <si>
+    <t>UNOFFICAL</t>
+  </si>
+  <si>
+    <t>BODDULA RISHI</t>
+  </si>
+  <si>
+    <t>23C71A6724</t>
+  </si>
+  <si>
+    <t>rishiboddula32@gmail.com</t>
+  </si>
+  <si>
+    <t>OV5DJ9YMVX35</t>
+  </si>
+  <si>
+    <t>YELLA ESHWAR SAI</t>
+  </si>
+  <si>
+    <t>23C71A6730</t>
+  </si>
+  <si>
+    <t>Saieshwar724@gamil.com</t>
+  </si>
+  <si>
+    <t>K3LEHCB2IPC9</t>
+  </si>
+  <si>
+    <t>D.BHARGAV</t>
+  </si>
+  <si>
+    <t>23C71A6747</t>
+  </si>
+  <si>
+    <t>donthiboyinab@gmail.com</t>
+  </si>
+  <si>
+    <t>JSUT65TMCPZT</t>
+  </si>
+  <si>
+    <t>MIDDE SHIRISHA</t>
+  </si>
+  <si>
+    <t>24C71A05H3</t>
+  </si>
+  <si>
+    <t>shirishashiri75@gmail.com</t>
+  </si>
+  <si>
+    <t>QFERCEFJSH8O</t>
+  </si>
+  <si>
+    <t>MALLARAPU SIRICHANDANA</t>
+  </si>
+  <si>
+    <t>24C71A05E6</t>
+  </si>
+  <si>
+    <t>anveshsonu5555@gmail.com</t>
+  </si>
+  <si>
+    <t>F9BN54YCQGUD</t>
+  </si>
+  <si>
+    <t>ESLAVATHA TRISHA</t>
+  </si>
+  <si>
+    <t>24C71A05G4</t>
+  </si>
+  <si>
+    <t>trisha.eslavath1@gmail.com</t>
+  </si>
+  <si>
+    <t>KU8JAZVACMS7</t>
+  </si>
+  <si>
+    <t>BODDU SPANDHANA</t>
+  </si>
+  <si>
+    <t>24C71A05G7</t>
+  </si>
+  <si>
+    <t>spandhanaboddu@gmail.com</t>
+  </si>
+  <si>
+    <t>11URQQZTCC3X</t>
+  </si>
+  <si>
+    <t>LABBA GAYATHRI</t>
+  </si>
+  <si>
+    <t>24C71A05F1</t>
+  </si>
+  <si>
+    <t>YDQJQUZ2DZV1</t>
+  </si>
+  <si>
+    <t>PATLOLLA SHIVANI</t>
+  </si>
+  <si>
+    <t>24C71A05A4</t>
+  </si>
+  <si>
+    <t>shivanipatlolla2004@gmail.com</t>
+  </si>
+  <si>
+    <t>AC4AY23PBCCA</t>
+  </si>
+  <si>
+    <t>KUNAPAREDDY JAIDEEP</t>
+  </si>
+  <si>
+    <t>23C71A6612</t>
+  </si>
+  <si>
+    <t>chintujayadevp@gmail.com</t>
+  </si>
+  <si>
+    <t>7U18RHKSLS7S</t>
+  </si>
+  <si>
+    <t>ABHISHEK SALLA</t>
+  </si>
+  <si>
+    <t>23C71A6664</t>
+  </si>
+  <si>
+    <t>abhi142668@gmail.com</t>
+  </si>
+  <si>
+    <t>8GS88PZBS490</t>
+  </si>
+  <si>
+    <t>DHAVILESWAR APU BHIMESWAR SAI KARTHIK</t>
+  </si>
+  <si>
+    <t>23C71A05A2</t>
+  </si>
+  <si>
+    <t>dhaveleswarapusaikarthik@gmail.com</t>
+  </si>
+  <si>
+    <t>HY5TTOMLGE12</t>
+  </si>
+  <si>
+    <t>TENUGU TEJASWI</t>
+  </si>
+  <si>
+    <t>23C71A6641</t>
+  </si>
+  <si>
+    <t>tejaswiniteju5577@gmail.com</t>
+  </si>
+  <si>
+    <t>57EW37QRJ4OS</t>
+  </si>
+  <si>
+    <t>KOMURAVELLI AISHWARYA</t>
+  </si>
+  <si>
+    <t>24C71A6668</t>
+  </si>
+  <si>
+    <t>rumaadas2630@gmail.com</t>
+  </si>
+  <si>
+    <t>ODLWBCO9LIF6</t>
+  </si>
+  <si>
+    <t>DHARAVATH VISHNU</t>
+  </si>
+  <si>
+    <t>24C71A6241</t>
+  </si>
+  <si>
+    <t>callmeg98@gmail.com</t>
+  </si>
+  <si>
+    <t>4DFEVPCLKHD4</t>
+  </si>
+  <si>
+    <t>SWAJAL KUMAR KACHHI</t>
+  </si>
+  <si>
+    <t>23C71A6233</t>
+  </si>
+  <si>
+    <t>swajalkumarkachhi@gmail.com</t>
+  </si>
+  <si>
+    <t>3KKRW92G1P4H</t>
+  </si>
+  <si>
+    <t>SHAIK SIDRA</t>
+  </si>
+  <si>
+    <t>23C71A0593</t>
+  </si>
+  <si>
+    <t>khutejashaik63@gmail.com</t>
+  </si>
+  <si>
+    <t>BXXL8IO6AW3P</t>
+  </si>
+  <si>
+    <t>KOTHAPALLY RADHIKA</t>
+  </si>
+  <si>
+    <t>23C71A0572</t>
+  </si>
+  <si>
+    <t>radhikakothapally05@gmail.com</t>
+  </si>
+  <si>
+    <t>59BB787CAIBI</t>
+  </si>
+  <si>
+    <t>KAKINADA MALLESHWARI</t>
+  </si>
+  <si>
+    <t>23C71A0595</t>
+  </si>
+  <si>
+    <t>kmalleshwari2601@gmail.com</t>
+  </si>
+  <si>
+    <t>KVQFVWVX62ET</t>
+  </si>
+  <si>
+    <t>D.SANJEEV REDDY</t>
+  </si>
+  <si>
+    <t>23C71A0586</t>
+  </si>
+  <si>
+    <t>vvreddy569@gmail.com</t>
+  </si>
+  <si>
+    <t>ITWT48KHHKQG</t>
+  </si>
+  <si>
+    <t>MALGEY ADARSH</t>
+  </si>
+  <si>
+    <t>23C71A05A9</t>
+  </si>
+  <si>
+    <t>alluarjunadi143@gmail.com</t>
+  </si>
+  <si>
+    <t>WGLS17NX4PG7</t>
+  </si>
+  <si>
+    <t>PIREDDY MANOJ REDDY</t>
+  </si>
+  <si>
+    <t>24C71A0564</t>
+  </si>
+  <si>
+    <t>manojreddypireddy@gmail.com</t>
+  </si>
+  <si>
+    <t>S56JQQ0CSO67</t>
+  </si>
+  <si>
+    <t>SYED RAHEEM</t>
+  </si>
+  <si>
+    <t>24C71A0521</t>
+  </si>
+  <si>
+    <t>raheemsyed893@gmail.com</t>
+  </si>
+  <si>
+    <t>UNASM5NYHJVW</t>
+  </si>
+  <si>
+    <t>GADIGE UDAY</t>
+  </si>
+  <si>
+    <t>23C71A6602</t>
+  </si>
+  <si>
+    <t>udayshankargadige27@gmail.com</t>
+  </si>
+  <si>
+    <t>LSXEQNEQMQ66</t>
+  </si>
+  <si>
+    <t>SAMEERA NAZMEEN</t>
+  </si>
+  <si>
+    <t>23C71A0537</t>
+  </si>
+  <si>
+    <t>sameerasam3118@gmail.com</t>
+  </si>
+  <si>
+    <t>BJC0U88ZQKK7</t>
+  </si>
+  <si>
+    <t>PITLAM SAIKUMAR</t>
+  </si>
+  <si>
+    <t>23C71A0597</t>
+  </si>
+  <si>
+    <t>pitlamsaikumar4@gmail.com</t>
+  </si>
+  <si>
+    <t>QMUF0U4L9H4C</t>
+  </si>
+  <si>
+    <t>UROGONDA TEJA</t>
+  </si>
+  <si>
+    <t>23C71A6617</t>
+  </si>
+  <si>
+    <t>tejaurogonda@gmail.com</t>
+  </si>
+  <si>
+    <t>RB3YYVE39AOP</t>
+  </si>
+  <si>
+    <t>ALLA LOKESH</t>
+  </si>
+  <si>
+    <t>23C71A6624</t>
+  </si>
+  <si>
+    <t>lokeshalla8964@gmail.com</t>
+  </si>
+  <si>
+    <t>QX35RU1ECEON</t>
+  </si>
+  <si>
+    <t>RADHANDI AJAY KUMAR</t>
+  </si>
+  <si>
+    <t>23C71A6658</t>
+  </si>
+  <si>
+    <t>radhandiajaykumar@gmail.com</t>
+  </si>
+  <si>
+    <t>ON73CDBSQ51W</t>
+  </si>
+  <si>
+    <t>NALLAGOPPULA SOMESHWAR</t>
+  </si>
+  <si>
+    <t>23C71A0575</t>
+  </si>
+  <si>
+    <t>someshnal926@gmail.com</t>
+  </si>
+  <si>
+    <t>UK1JUBSXBRY4</t>
+  </si>
+  <si>
+    <t>GONDLA NAVYA SRI</t>
+  </si>
+  <si>
+    <t>24C71A6741</t>
+  </si>
+  <si>
+    <t>gondlanavyasri@gmail.com</t>
+  </si>
+  <si>
+    <t>U0949HG5EX23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anishreddy </t>
+  </si>
+  <si>
+    <t>23C71A6619</t>
+  </si>
+  <si>
+    <t>anishreddy2176@gmail.com</t>
+  </si>
+  <si>
+    <t>BRHEDY8MEZHQ</t>
+  </si>
+  <si>
+    <t>MODALA HARISH</t>
+  </si>
+  <si>
+    <t>23C71A0413</t>
+  </si>
+  <si>
+    <t>harishsagar7153@gmail.com</t>
+  </si>
+  <si>
+    <t>MVLOYKQKNM67</t>
+  </si>
+  <si>
+    <t>GORRE CHARAN REDDY</t>
+  </si>
+  <si>
+    <t>24C71A0208</t>
+  </si>
+  <si>
+    <t>XKUXP8OC37YI</t>
+  </si>
+  <si>
+    <t>DASU NANDINI</t>
+  </si>
+  <si>
+    <t>23C71A6648</t>
+  </si>
+  <si>
+    <t>dasunandini16@gmail.com</t>
+  </si>
+  <si>
+    <t>1R2V72LZWKRZ</t>
+  </si>
+  <si>
+    <t>TALLA SMITHA</t>
+  </si>
+  <si>
+    <t>23C71A6604</t>
+  </si>
+  <si>
+    <t>tallasmitha31@gmail.com</t>
+  </si>
+  <si>
+    <t>49OBUXTR1ITP</t>
+  </si>
+  <si>
+    <t>PAIDADA JAGADEESH</t>
+  </si>
+  <si>
+    <t>23C71A6649</t>
+  </si>
+  <si>
+    <t>pyadadaj@gmail.com</t>
+  </si>
+  <si>
+    <t>A0RYY75NN7DM</t>
+  </si>
+  <si>
+    <t>TANNA KRISHNAVAMSI</t>
+  </si>
+  <si>
+    <t>23C71A6621</t>
+  </si>
+  <si>
+    <t>Krishnavamsitanna123@gmail.com</t>
+  </si>
+  <si>
+    <t>E10K20L4O58F</t>
+  </si>
+  <si>
+    <t>MANTHENA AASLESH VARMA</t>
+  </si>
+  <si>
+    <t>24C71A05O4</t>
+  </si>
+  <si>
+    <t>manthenaaasleshvarma19@gmail.com</t>
+  </si>
+  <si>
+    <t>G99HQ2R2IANR</t>
+  </si>
+  <si>
+    <t>Pranay</t>
+  </si>
+  <si>
+    <t>23C71A6206</t>
+  </si>
+  <si>
+    <t>pranay.b0311@gmail.com</t>
+  </si>
+  <si>
+    <t>0VC8R0P43F1C</t>
+  </si>
+  <si>
+    <t>NIKIL KUMAR</t>
+  </si>
+  <si>
+    <t>23C71A6225</t>
+  </si>
+  <si>
+    <t>sankarapunikil123@gmail.com</t>
+  </si>
+  <si>
+    <t>TXJCEAXBW1U7</t>
+  </si>
+  <si>
+    <t>BADRINATH REDDY</t>
+  </si>
+  <si>
+    <t>23C71A6215</t>
+  </si>
+  <si>
+    <t>yamalar@gmail.com</t>
+  </si>
+  <si>
+    <t>NEXWI5ECO8UE</t>
+  </si>
+  <si>
+    <t>BRAMHAKANTI SAI GEETH</t>
+  </si>
+  <si>
+    <t>23C71A6226</t>
+  </si>
+  <si>
+    <t>saigeethbramhakanti2005@gmail.com</t>
+  </si>
+  <si>
+    <t>09YGLSI9A5B8</t>
+  </si>
+  <si>
+    <t>TILAK VARMA</t>
+  </si>
+  <si>
+    <t>23C71A6208</t>
+  </si>
+  <si>
+    <t>9182330751</t>
+  </si>
+  <si>
+    <t>tilakvarma2022@gmail.com</t>
+  </si>
+  <si>
+    <t>D33ZNCE9STXT</t>
   </si>
 </sst>
 </file>
@@ -4299,7 +4905,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4355,7 +4961,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4658,14 +5264,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I357"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T170" sqref="T170"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="N400" sqref="N400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4696,7 +5304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4722,7 +5330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4748,7 +5356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4774,7 +5382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +5408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4826,7 +5434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4852,7 +5460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4878,7 +5486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4904,7 +5512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4930,7 +5538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4956,7 +5564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -4982,7 +5590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -5008,7 +5616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -5034,7 +5642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -5060,7 +5668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -5086,7 +5694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -5112,7 +5720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -5138,7 +5746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5164,7 +5772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -5190,7 +5798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -5216,7 +5824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -5242,7 +5850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -5268,7 +5876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -5294,7 +5902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -5320,7 +5928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -5346,7 +5954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -5372,7 +5980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -5398,7 +6006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -5424,7 +6032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -5450,7 +6058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -5476,7 +6084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -5502,7 +6110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -5528,7 +6136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -5554,7 +6162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -5580,7 +6188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -5606,7 +6214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -5632,7 +6240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -5658,7 +6266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -5684,7 +6292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -5710,7 +6318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -5736,7 +6344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -5762,7 +6370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -5788,7 +6396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -5814,7 +6422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -5840,7 +6448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -5866,7 +6474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>195</v>
       </c>
@@ -5892,7 +6500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -5918,7 +6526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -5944,7 +6552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -5970,7 +6578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -5996,7 +6604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>215</v>
       </c>
@@ -6022,7 +6630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -6048,7 +6656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -6074,7 +6682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -6100,7 +6708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -6126,7 +6734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>235</v>
       </c>
@@ -6152,7 +6760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -6178,7 +6786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>243</v>
       </c>
@@ -6204,7 +6812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>247</v>
       </c>
@@ -6230,7 +6838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -6256,7 +6864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -6282,7 +6890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>259</v>
       </c>
@@ -6308,7 +6916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>263</v>
       </c>
@@ -6334,7 +6942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>267</v>
       </c>
@@ -6360,7 +6968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>271</v>
       </c>
@@ -6386,7 +6994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -6412,7 +7020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>279</v>
       </c>
@@ -6438,7 +7046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -6464,7 +7072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -6490,7 +7098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -6516,7 +7124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>295</v>
       </c>
@@ -6542,7 +7150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>299</v>
       </c>
@@ -6568,7 +7176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -6594,7 +7202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>307</v>
       </c>
@@ -6620,7 +7228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -6646,7 +7254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -6672,7 +7280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -6698,7 +7306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>325</v>
       </c>
@@ -6724,7 +7332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -6750,7 +7358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>333</v>
       </c>
@@ -6776,7 +7384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -6802,7 +7410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>341</v>
       </c>
@@ -6828,7 +7436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>345</v>
       </c>
@@ -6854,7 +7462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>349</v>
       </c>
@@ -6880,7 +7488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>353</v>
       </c>
@@ -6906,12 +7514,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45721</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>357</v>
       </c>
@@ -6937,7 +7545,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>362</v>
       </c>
@@ -6963,7 +7571,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>366</v>
       </c>
@@ -6989,7 +7597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>370</v>
       </c>
@@ -7015,7 +7623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>374</v>
       </c>
@@ -7041,7 +7649,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>378</v>
       </c>
@@ -7067,7 +7675,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -7093,7 +7701,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>386</v>
       </c>
@@ -7119,7 +7727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>390</v>
       </c>
@@ -7145,7 +7753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>394</v>
       </c>
@@ -7171,7 +7779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -7197,7 +7805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -7223,7 +7831,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -7249,7 +7857,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>410</v>
       </c>
@@ -7275,7 +7883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -7301,7 +7909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>418</v>
       </c>
@@ -7327,7 +7935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>422</v>
       </c>
@@ -7353,7 +7961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>426</v>
       </c>
@@ -7379,7 +7987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>430</v>
       </c>
@@ -7405,7 +8013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>434</v>
       </c>
@@ -7431,7 +8039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>438</v>
       </c>
@@ -7457,7 +8065,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>442</v>
       </c>
@@ -7483,7 +8091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>446</v>
       </c>
@@ -7509,7 +8117,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>450</v>
       </c>
@@ -7535,7 +8143,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>454</v>
       </c>
@@ -7561,7 +8169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>458</v>
       </c>
@@ -7587,7 +8195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -7613,7 +8221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>466</v>
       </c>
@@ -7639,7 +8247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>470</v>
       </c>
@@ -7665,7 +8273,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>474</v>
       </c>
@@ -7691,7 +8299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>478</v>
       </c>
@@ -7717,7 +8325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -7743,7 +8351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>486</v>
       </c>
@@ -7769,7 +8377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>490</v>
       </c>
@@ -7795,7 +8403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>494</v>
       </c>
@@ -7821,7 +8429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>498</v>
       </c>
@@ -7847,7 +8455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>502</v>
       </c>
@@ -7873,7 +8481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>506</v>
       </c>
@@ -7899,7 +8507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>510</v>
       </c>
@@ -7925,7 +8533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>514</v>
       </c>
@@ -7951,7 +8559,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>518</v>
       </c>
@@ -7977,7 +8585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>522</v>
       </c>
@@ -8003,7 +8611,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>526</v>
       </c>
@@ -8029,7 +8637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>530</v>
       </c>
@@ -8055,7 +8663,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>534</v>
       </c>
@@ -8081,7 +8689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>538</v>
       </c>
@@ -8107,7 +8715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>542</v>
       </c>
@@ -8159,7 +8767,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>551</v>
       </c>
@@ -8211,7 +8819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>559</v>
       </c>
@@ -8263,7 +8871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>567</v>
       </c>
@@ -8289,7 +8897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>571</v>
       </c>
@@ -8315,7 +8923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>576</v>
       </c>
@@ -8341,7 +8949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>580</v>
       </c>
@@ -8367,7 +8975,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>585</v>
       </c>
@@ -8393,7 +9001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>589</v>
       </c>
@@ -8419,7 +9027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>593</v>
       </c>
@@ -8445,7 +9053,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -8471,7 +9079,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>601</v>
       </c>
@@ -8653,7 +9261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>629</v>
       </c>
@@ -8679,7 +9287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>633</v>
       </c>
@@ -8705,7 +9313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>637</v>
       </c>
@@ -8731,7 +9339,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>641</v>
       </c>
@@ -8757,7 +9365,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>645</v>
       </c>
@@ -8783,7 +9391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>649</v>
       </c>
@@ -8809,7 +9417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>653</v>
       </c>
@@ -8835,7 +9443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>657</v>
       </c>
@@ -8861,7 +9469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>661</v>
       </c>
@@ -8887,7 +9495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>665</v>
       </c>
@@ -8913,7 +9521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>669</v>
       </c>
@@ -8939,7 +9547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>673</v>
       </c>
@@ -8965,7 +9573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>678</v>
       </c>
@@ -8991,7 +9599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>682</v>
       </c>
@@ -9069,7 +9677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>694</v>
       </c>
@@ -9095,7 +9703,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>698</v>
       </c>
@@ -9147,7 +9755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>706</v>
       </c>
@@ -9173,7 +9781,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>710</v>
       </c>
@@ -9199,7 +9807,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>714</v>
       </c>
@@ -9225,7 +9833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>718</v>
       </c>
@@ -9251,7 +9859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>722</v>
       </c>
@@ -9277,7 +9885,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>726</v>
       </c>
@@ -9303,7 +9911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>730</v>
       </c>
@@ -9329,7 +9937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>734</v>
       </c>
@@ -9511,7 +10119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>761</v>
       </c>
@@ -9537,7 +10145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>765</v>
       </c>
@@ -9563,7 +10171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>769</v>
       </c>
@@ -9589,7 +10197,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>774</v>
       </c>
@@ -9615,7 +10223,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>777</v>
       </c>
@@ -9641,7 +10249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>781</v>
       </c>
@@ -9667,7 +10275,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>785</v>
       </c>
@@ -9693,7 +10301,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>789</v>
       </c>
@@ -9719,7 +10327,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>793</v>
       </c>
@@ -9771,7 +10379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>45782</v>
       </c>
@@ -9932,7 +10540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>825</v>
       </c>
@@ -9958,7 +10566,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>829</v>
       </c>
@@ -9984,7 +10592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>833</v>
       </c>
@@ -10010,7 +10618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>837</v>
       </c>
@@ -10036,7 +10644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>841</v>
       </c>
@@ -10062,7 +10670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>845</v>
       </c>
@@ -10088,7 +10696,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>849</v>
       </c>
@@ -10114,7 +10722,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>853</v>
       </c>
@@ -10140,7 +10748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>857</v>
       </c>
@@ -10166,7 +10774,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>861</v>
       </c>
@@ -10192,7 +10800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>865</v>
       </c>
@@ -10218,7 +10826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>869</v>
       </c>
@@ -10348,7 +10956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>889</v>
       </c>
@@ -10374,7 +10982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>893</v>
       </c>
@@ -10400,7 +11008,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>897</v>
       </c>
@@ -10426,7 +11034,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>901</v>
       </c>
@@ -10478,7 +11086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>909</v>
       </c>
@@ -10504,7 +11112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>913</v>
       </c>
@@ -10530,7 +11138,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>917</v>
       </c>
@@ -10556,7 +11164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>921</v>
       </c>
@@ -10582,7 +11190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>925</v>
       </c>
@@ -10608,7 +11216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>929</v>
       </c>
@@ -10634,7 +11242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>933</v>
       </c>
@@ -10712,7 +11320,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>944</v>
       </c>
@@ -10738,7 +11346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>948</v>
       </c>
@@ -10764,7 +11372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>952</v>
       </c>
@@ -10790,7 +11398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>956</v>
       </c>
@@ -10816,7 +11424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>960</v>
       </c>
@@ -10842,7 +11450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>964</v>
       </c>
@@ -10868,7 +11476,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>968</v>
       </c>
@@ -10894,7 +11502,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>972</v>
       </c>
@@ -10920,7 +11528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>976</v>
       </c>
@@ -10946,7 +11554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>980</v>
       </c>
@@ -10972,7 +11580,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>984</v>
       </c>
@@ -10998,7 +11606,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>988</v>
       </c>
@@ -11024,7 +11632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>992</v>
       </c>
@@ -11050,7 +11658,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>996</v>
       </c>
@@ -11076,7 +11684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1000</v>
       </c>
@@ -11102,7 +11710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1004</v>
       </c>
@@ -11128,7 +11736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1008</v>
       </c>
@@ -11154,7 +11762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1012</v>
       </c>
@@ -11180,7 +11788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1016</v>
       </c>
@@ -11206,7 +11814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1020</v>
       </c>
@@ -11232,7 +11840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1024</v>
       </c>
@@ -11258,7 +11866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1028</v>
       </c>
@@ -11284,7 +11892,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1032</v>
       </c>
@@ -11310,7 +11918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1036</v>
       </c>
@@ -11388,7 +11996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1048</v>
       </c>
@@ -11414,7 +12022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1052</v>
       </c>
@@ -11440,7 +12048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1056</v>
       </c>
@@ -11466,7 +12074,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1060</v>
       </c>
@@ -11492,7 +12100,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1063</v>
       </c>
@@ -11518,7 +12126,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1067</v>
       </c>
@@ -11544,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1071</v>
       </c>
@@ -11596,7 +12204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1079</v>
       </c>
@@ -11622,7 +12230,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1083</v>
       </c>
@@ -11648,7 +12256,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1087</v>
       </c>
@@ -11674,7 +12282,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1091</v>
       </c>
@@ -11700,7 +12308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1095</v>
       </c>
@@ -11726,7 +12334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1099</v>
       </c>
@@ -11752,7 +12360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1103</v>
       </c>
@@ -11778,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1107</v>
       </c>
@@ -11804,7 +12412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1111</v>
       </c>
@@ -11830,7 +12438,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1115</v>
       </c>
@@ -11856,7 +12464,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1119</v>
       </c>
@@ -11882,7 +12490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1123</v>
       </c>
@@ -11908,7 +12516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1127</v>
       </c>
@@ -11934,7 +12542,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1131</v>
       </c>
@@ -11960,7 +12568,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1135</v>
       </c>
@@ -11986,7 +12594,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1139</v>
       </c>
@@ -12038,7 +12646,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1147</v>
       </c>
@@ -12090,7 +12698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1155</v>
       </c>
@@ -12116,7 +12724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1159</v>
       </c>
@@ -12142,7 +12750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1163</v>
       </c>
@@ -12220,7 +12828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1175</v>
       </c>
@@ -12246,7 +12854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1179</v>
       </c>
@@ -12298,7 +12906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1187</v>
       </c>
@@ -12324,7 +12932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1191</v>
       </c>
@@ -12350,7 +12958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1195</v>
       </c>
@@ -12376,7 +12984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1199</v>
       </c>
@@ -12402,12 +13010,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>45813</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1203</v>
       </c>
@@ -12433,7 +13041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1207</v>
       </c>
@@ -12459,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1211</v>
       </c>
@@ -12485,7 +13093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1215</v>
       </c>
@@ -12511,7 +13119,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1219</v>
       </c>
@@ -12537,7 +13145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1223</v>
       </c>
@@ -12563,7 +13171,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1227</v>
       </c>
@@ -12667,7 +13275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1243</v>
       </c>
@@ -12693,7 +13301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1247</v>
       </c>
@@ -12719,7 +13327,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1251</v>
       </c>
@@ -12745,7 +13353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1255</v>
       </c>
@@ -12771,7 +13379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1259</v>
       </c>
@@ -12849,7 +13457,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1271</v>
       </c>
@@ -12875,7 +13483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1275</v>
       </c>
@@ -12901,7 +13509,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1279</v>
       </c>
@@ -12927,12 +13535,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45843</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1283</v>
       </c>
@@ -12958,7 +13566,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1287</v>
       </c>
@@ -12984,7 +13592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1291</v>
       </c>
@@ -13010,7 +13618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1295</v>
       </c>
@@ -13036,7 +13644,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1299</v>
       </c>
@@ -13062,7 +13670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1303</v>
       </c>
@@ -13088,7 +13696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1307</v>
       </c>
@@ -13114,7 +13722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1311</v>
       </c>
@@ -13140,7 +13748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1315</v>
       </c>
@@ -13166,7 +13774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1319</v>
       </c>
@@ -13192,7 +13800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1323</v>
       </c>
@@ -13218,7 +13826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1327</v>
       </c>
@@ -13244,7 +13852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1331</v>
       </c>
@@ -13270,7 +13878,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1335</v>
       </c>
@@ -13296,7 +13904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1339</v>
       </c>
@@ -13318,16 +13926,16 @@
       <c r="G336" t="s">
         <v>1342</v>
       </c>
-      <c r="I336" t="s">
+      <c r="H336" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>45874</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1343</v>
       </c>
@@ -13349,11 +13957,11 @@
       <c r="G338" t="s">
         <v>1346</v>
       </c>
-      <c r="I338" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1347</v>
       </c>
@@ -13375,11 +13983,11 @@
       <c r="G339" t="s">
         <v>1350</v>
       </c>
-      <c r="I339" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1351</v>
       </c>
@@ -13401,11 +14009,11 @@
       <c r="G340" t="s">
         <v>1354</v>
       </c>
-      <c r="I340" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H340" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1355</v>
       </c>
@@ -13427,11 +14035,11 @@
       <c r="G341" t="s">
         <v>1358</v>
       </c>
-      <c r="I341" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1359</v>
       </c>
@@ -13453,11 +14061,11 @@
       <c r="G342" t="s">
         <v>1362</v>
       </c>
-      <c r="I342" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1363</v>
       </c>
@@ -13479,11 +14087,11 @@
       <c r="G343" t="s">
         <v>1366</v>
       </c>
-      <c r="I343" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H343" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1367</v>
       </c>
@@ -13505,11 +14113,11 @@
       <c r="G344" t="s">
         <v>1370</v>
       </c>
-      <c r="I344" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1371</v>
       </c>
@@ -13531,11 +14139,11 @@
       <c r="G345" t="s">
         <v>1374</v>
       </c>
-      <c r="I345" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H345" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1375</v>
       </c>
@@ -13557,11 +14165,11 @@
       <c r="G346" t="s">
         <v>1378</v>
       </c>
-      <c r="I346" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1379</v>
       </c>
@@ -13583,11 +14191,11 @@
       <c r="G347" t="s">
         <v>1382</v>
       </c>
-      <c r="I347" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H347" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1383</v>
       </c>
@@ -13609,11 +14217,11 @@
       <c r="G348" t="s">
         <v>1386</v>
       </c>
-      <c r="I348" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1387</v>
       </c>
@@ -13635,11 +14243,11 @@
       <c r="G349" t="s">
         <v>1390</v>
       </c>
-      <c r="I349" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1391</v>
       </c>
@@ -13661,11 +14269,11 @@
       <c r="G350" t="s">
         <v>1394</v>
       </c>
-      <c r="I350" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1395</v>
       </c>
@@ -13687,11 +14295,11 @@
       <c r="G351" t="s">
         <v>1398</v>
       </c>
-      <c r="I351" t="s">
+      <c r="H351" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1399</v>
       </c>
@@ -13713,11 +14321,11 @@
       <c r="G352" t="s">
         <v>1402</v>
       </c>
-      <c r="I352" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1403</v>
       </c>
@@ -13739,11 +14347,11 @@
       <c r="G353" t="s">
         <v>1406</v>
       </c>
-      <c r="I353" t="s">
+      <c r="H353" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1407</v>
       </c>
@@ -13765,11 +14373,11 @@
       <c r="G354" t="s">
         <v>1410</v>
       </c>
-      <c r="I354" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H354" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1411</v>
       </c>
@@ -13791,11 +14399,11 @@
       <c r="G355" t="s">
         <v>1414</v>
       </c>
-      <c r="I355" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H355" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1415</v>
       </c>
@@ -13817,19 +14425,19 @@
       <c r="G356" t="s">
         <v>1418</v>
       </c>
-      <c r="I356" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1419</v>
       </c>
       <c r="B357" t="s">
         <v>1420</v>
       </c>
-      <c r="C357" t="s">
-        <v>1421</v>
+      <c r="C357">
+        <v>6281326428</v>
       </c>
       <c r="D357" t="s">
         <v>1417</v>
@@ -13841,20 +14449,1453 @@
         <v>549</v>
       </c>
       <c r="G357" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H357" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>1422</v>
       </c>
-      <c r="I357" t="s">
+      <c r="B359" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C359">
+        <v>6305611619</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E359" t="s">
+        <v>19</v>
+      </c>
+      <c r="F359" t="s">
+        <v>13</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C360">
+        <v>8247752590</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E360" t="s">
+        <v>574</v>
+      </c>
+      <c r="F360" t="s">
+        <v>549</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C361">
+        <v>9063293702</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E361" t="s">
+        <v>323</v>
+      </c>
+      <c r="F361" t="s">
+        <v>549</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C362">
+        <v>9951026467</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E362" t="s">
+        <v>676</v>
+      </c>
+      <c r="F362" t="s">
+        <v>13</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C363">
+        <v>9059825137</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E363" t="s">
+        <v>133</v>
+      </c>
+      <c r="F363" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H363" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C364">
+        <v>7993663729</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E364" t="s">
+        <v>19</v>
+      </c>
+      <c r="F364" t="s">
+        <v>13</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H364" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C365">
+        <v>7207539223</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E365" t="s">
+        <v>133</v>
+      </c>
+      <c r="F365" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H365" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C367">
+        <v>9441793336</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E367" t="s">
+        <v>12</v>
+      </c>
+      <c r="F367" t="s">
+        <v>549</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C368">
+        <v>6281107647</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E368" t="s">
+        <v>12</v>
+      </c>
+      <c r="F368" t="s">
+        <v>549</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C369">
+        <v>7075356421</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E369" t="s">
+        <v>12</v>
+      </c>
+      <c r="F369" t="s">
+        <v>549</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C370">
+        <v>9618380345</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E370" t="s">
+        <v>133</v>
+      </c>
+      <c r="F370" t="s">
+        <v>13</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C371">
+        <v>7993514752</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E371" t="s">
+        <v>133</v>
+      </c>
+      <c r="F371" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C372">
+        <v>7997084213</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E372" t="s">
+        <v>133</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C373">
+        <v>8121430759</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E373" t="s">
+        <v>133</v>
+      </c>
+      <c r="F373" t="s">
+        <v>13</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C374">
+        <v>9030964549</v>
+      </c>
+      <c r="D374" t="s">
+        <v>165</v>
+      </c>
+      <c r="E374" t="s">
+        <v>133</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H374" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C375">
+        <v>6300793968</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E375" t="s">
+        <v>133</v>
+      </c>
+      <c r="F375" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C376">
+        <v>9618138939</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E376" t="s">
+        <v>19</v>
+      </c>
+      <c r="F376" t="s">
+        <v>549</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C377">
+        <v>9948418776</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E377" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377" t="s">
+        <v>549</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H377" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C378">
+        <v>8074931793</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E378" t="s">
+        <v>133</v>
+      </c>
+      <c r="F378" t="s">
+        <v>549</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H378" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C379">
+        <v>8074568965</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E379" t="s">
+        <v>19</v>
+      </c>
+      <c r="F379" t="s">
+        <v>549</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C380">
+        <v>6300793968</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E380" t="s">
+        <v>133</v>
+      </c>
+      <c r="F380" t="s">
+        <v>13</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H380" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C381">
+        <v>9618138939</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E381" t="s">
+        <v>19</v>
+      </c>
+      <c r="F381" t="s">
+        <v>549</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H381" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C382">
+        <v>9948418776</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E382" t="s">
+        <v>19</v>
+      </c>
+      <c r="F382" t="s">
+        <v>549</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H382" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C383">
+        <v>8074931793</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E383" t="s">
+        <v>133</v>
+      </c>
+      <c r="F383" t="s">
+        <v>549</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C384">
+        <v>9390322871</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E384" t="s">
+        <v>133</v>
+      </c>
+      <c r="F384" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C385">
+        <v>7337432711</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E385" t="s">
+        <v>323</v>
+      </c>
+      <c r="F385" t="s">
+        <v>13</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H385" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C386">
+        <v>8309329250</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E386" t="s">
+        <v>323</v>
+      </c>
+      <c r="F386" t="s">
+        <v>549</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C387">
+        <v>7075789638</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E387" t="s">
+        <v>133</v>
+      </c>
+      <c r="F387" t="s">
+        <v>549</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H387" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C388">
+        <v>9032769043</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E388" t="s">
+        <v>133</v>
+      </c>
+      <c r="F388" t="s">
+        <v>549</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C389">
+        <v>8523056539</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E389" t="s">
+        <v>133</v>
+      </c>
+      <c r="F389" t="s">
+        <v>549</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C390">
+        <v>6281533969</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E390" t="s">
+        <v>133</v>
+      </c>
+      <c r="F390" t="s">
+        <v>549</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H390" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C391">
+        <v>7702393917</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E391" t="s">
+        <v>133</v>
+      </c>
+      <c r="F391" t="s">
+        <v>549</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H391" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C392">
+        <v>8978826131</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E392" t="s">
+        <v>133</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C393">
+        <v>8106094952</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E393" t="s">
+        <v>133</v>
+      </c>
+      <c r="F393" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H393" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C394">
+        <v>8328436970</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E394" t="s">
+        <v>133</v>
+      </c>
+      <c r="F394" t="s">
+        <v>549</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H394" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C395">
+        <v>9182626720</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E395" t="s">
+        <v>133</v>
+      </c>
+      <c r="F395" t="s">
+        <v>549</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H395" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C396">
+        <v>8499886127</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E396" t="s">
+        <v>133</v>
+      </c>
+      <c r="F396" t="s">
+        <v>549</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H396" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C397">
+        <v>8247865816</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E397" t="s">
+        <v>19</v>
+      </c>
+      <c r="F397" t="s">
+        <v>549</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H397" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C398">
+        <v>6300649166</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E398" t="s">
+        <v>19</v>
+      </c>
+      <c r="F398" t="s">
+        <v>549</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C399">
+        <v>6305110134</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E399" t="s">
+        <v>19</v>
+      </c>
+      <c r="F399" t="s">
+        <v>549</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H399" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C400">
+        <v>9177578161</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E400" t="s">
+        <v>133</v>
+      </c>
+      <c r="F400" t="s">
+        <v>549</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H400" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C401">
+        <v>9441133180</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E401" t="s">
+        <v>12</v>
+      </c>
+      <c r="F401" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C402">
+        <v>7842593409</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E402" t="s">
+        <v>19</v>
+      </c>
+      <c r="F402" t="s">
+        <v>549</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H402" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C403">
+        <v>9381284510</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E403" t="s">
+        <v>574</v>
+      </c>
+      <c r="F403" t="s">
+        <v>549</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H403" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C404">
+        <v>9390497593</v>
+      </c>
+      <c r="D404" t="s">
+        <v>974</v>
+      </c>
+      <c r="E404" t="s">
+        <v>133</v>
+      </c>
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H404" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C405">
+        <v>9032796018</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E405" t="s">
+        <v>19</v>
+      </c>
+      <c r="F405" t="s">
+        <v>549</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H405" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C406">
+        <v>7013263994</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E406" t="s">
+        <v>19</v>
+      </c>
+      <c r="F406" t="s">
+        <v>549</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H406" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C407">
+        <v>9390777855</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E407" t="s">
+        <v>19</v>
+      </c>
+      <c r="F407" t="s">
+        <v>549</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H407" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C408">
+        <v>9666148320</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E408" t="s">
+        <v>19</v>
+      </c>
+      <c r="F408" t="s">
+        <v>549</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H408" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C409">
+        <v>8125918168</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E409" t="s">
+        <v>133</v>
+      </c>
+      <c r="F409" t="s">
+        <v>13</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H409" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C410">
+        <v>9059315079</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E410" t="s">
+        <v>323</v>
+      </c>
+      <c r="F410" t="s">
+        <v>549</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I410" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C411">
+        <v>6302298002</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E411" t="s">
+        <v>323</v>
+      </c>
+      <c r="F411" t="s">
+        <v>549</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I411" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C412">
+        <v>8886577340</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E412" t="s">
+        <v>323</v>
+      </c>
+      <c r="F412" t="s">
+        <v>549</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C413">
+        <v>9493834676</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E413" t="s">
+        <v>323</v>
+      </c>
+      <c r="F413" t="s">
+        <v>549</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I413" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E414" t="s">
+        <v>323</v>
+      </c>
+      <c r="F414" t="s">
+        <v>549</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I414" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I357" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2nd Year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/freshers_data.xlsx
+++ b/freshers_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilak\OneDrive\Desktop\NYRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/392b95d63efb845a/Desktop/NYRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C6D51-38C7-470D-B136-4A2E503CAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EC4C6D51-38C7-470D-B136-4A2E503CAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{904183D4-08D5-42E1-BB0F-F03E6EB5A8CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5320,7 +5320,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" customWidth="1"/>
+    <col min="7" max="7" width="49.5546875" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
